--- a/medicine/Enfance/Castelmore_(maison_d'édition)/Castelmore_(maison_d'édition).xlsx
+++ b/medicine/Enfance/Castelmore_(maison_d'édition)/Castelmore_(maison_d'édition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Castelmore, maison d'édition créée en 2010, est un département de la société Bragelonne spécialisé dans la publication de livres pour adolescents sur le thème de la fantasy, de la science-fiction et de l'humour. Castelmore publie des inédits en grand format, avec deux à trois titres par mois.
-La direction est assurée par Barbara Bessat-Lelarge, ancienne libraire. La diffusion des titres Castelmore est assurée par Média Diffusion et la distribution par MDS[1].
+La direction est assurée par Barbara Bessat-Lelarge, ancienne libraire. La diffusion des titres Castelmore est assurée par Média Diffusion et la distribution par MDS.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Collection Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paul Béorn
 Nadia Coste
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Collection 8-12 ans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>John Bellairs
 Mark Cheverton
@@ -602,7 +618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -620,7 +636,9 @@
           <t>Collection Fantasy</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mel Andoryss
 Série Les Enfants d'Evernight
@@ -657,7 +675,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -675,7 +693,9 @@
           <t>Collection Humour</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jim C. Hines</t>
         </is>
@@ -687,7 +707,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +725,9 @@
           <t>Collection Science-fiction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Claudia Gray
 Kay Kenyon
@@ -722,7 +744,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -740,7 +762,9 @@
           <t>Collection Bit-Lit</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Kelley Armstrong
 Lisa Desrochers
@@ -774,7 +798,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -792,7 +816,9 @@
           <t>Collection Terreur</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>William Hussey
 Série Traqueur
@@ -809,7 +835,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Castelmore_(maison_d%27%C3%A9dition)</t>
+          <t>Castelmore_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,7 +853,9 @@
           <t>Collection Dystopie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jana Oliver
 Série Devil City
